--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Phase1 Tasks" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Phase1 Tasks'!$A$1:$D$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Phase1 Tasks'!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -86,6 +87,18 @@
   </si>
   <si>
     <t>discuss this project and who will take on what role (task) in the team.</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>This task depends on the completion of all other tasks</t>
   </si>
 </sst>
 </file>
@@ -503,7 +516,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J9:J10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>19</v>
@@ -581,9 +594,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -591,9 +606,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -601,9 +618,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -611,9 +630,11 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -623,7 +644,9 @@
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -633,7 +656,9 @@
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -643,7 +668,9 @@
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -653,7 +680,9 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -661,9 +690,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
@@ -671,9 +702,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
@@ -683,10 +716,15 @@
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -617,7 +617,7 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -641,7 +641,7 @@
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -653,7 +653,7 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -677,7 +677,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -689,7 +689,7 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -713,7 +713,7 @@
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -724,7 +724,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>23</v>
@@ -606,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>23</v>
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
@@ -724,6 +724,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Phase1 Tasks" sheetId="4" r:id="rId1"/>
+    <sheet name="Phase2 Tasks" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Phase1 Tasks'!$A$1:$D$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Phase1 Tasks'!$A$1:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Phase1 Tasks'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase2 Tasks'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Phase1 Tasks'!$C$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Phase2 Tasks'!$C$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -98,7 +101,61 @@
     <t>Nick</t>
   </si>
   <si>
-    <t>This task depends on the completion of all other tasks</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Depends on</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5, 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will need to have code for each test case, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well as, code for the program as well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">your source code must be split into two files, one where all the print functions exist, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and the second where you have all other functions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There must be a single header file for functions prototypes and global constants. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You must have a make file for your implementation, which compiles your code into an executable called “lister”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you can gain some of your points back by providing a bug report. </t>
+  </si>
+  <si>
+    <t>pseudocode-design.docx</t>
+  </si>
+  <si>
+    <t>test-design.xlsx</t>
+  </si>
+  <si>
+    <t>cse220_lab2_phase1.tar</t>
+  </si>
+  <si>
+    <t>change-screenshot.docx</t>
+  </si>
+  <si>
+    <t>solution-document.docx</t>
   </si>
 </sst>
 </file>
@@ -186,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,6 +267,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -513,218 +582,595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Nick</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>ID</t>
@@ -243,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +276,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,7 +585,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -615,16 +615,14 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -638,14 +636,12 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -659,14 +655,12 @@
         <v>19</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="8"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
@@ -680,14 +674,12 @@
         <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -701,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -720,7 +712,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -739,14 +731,12 @@
         <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -760,14 +750,12 @@
         <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -784,9 +772,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>
@@ -801,7 +787,7 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -819,10 +805,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -840,10 +826,10 @@
         <v>25</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -861,10 +847,10 @@
         <v>25</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -872,20 +858,20 @@
       <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
+      <c r="D14" s="13">
+        <v>0.8</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
@@ -897,16 +883,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -924,10 +910,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +928,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +945,7 @@
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -971,21 +957,19 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -993,14 +977,12 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A3" s="6"/>
       <c r="B3" s="6">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1008,14 +990,12 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="8"/>
       <c r="B4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1023,14 +1003,12 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1043,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1056,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1064,14 +1042,12 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1079,9 +1055,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
@@ -1092,9 +1066,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>9</v>
       </c>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Phase2 Tasks" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Phase1 Tasks'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Phase1 Tasks'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase2 Tasks'!$A$1:$G$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Phase1 Tasks'!$C$1:$G$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Phase2 Tasks'!$C$1:$G$16</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>Team</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>discuss this project and who will take on what role (task) in the team.</t>
@@ -585,7 +579,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,14 +590,14 @@
     <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -615,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -636,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3"/>
     </row>
@@ -646,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -655,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -674,7 +668,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -693,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -709,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -728,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -747,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -763,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>19</v>
@@ -780,14 +774,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -799,16 +793,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -820,16 +814,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -841,16 +835,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -861,17 +855,17 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="13">
-        <v>0.8</v>
+      <c r="D14" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
@@ -883,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
@@ -904,20 +898,19 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -945,7 +938,7 @@
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>13</v>
@@ -957,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -969,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -982,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -995,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1008,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1021,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1034,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1047,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 2 Tasks" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -713,9 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,12 +954,16 @@
       <c r="B11" s="23">
         <v>10</v>
       </c>
-      <c r="C11" s="31"/>
+      <c r="C11" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="25"/>
       <c r="E11" s="23"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1004,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -718,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="28">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="27">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="28">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="27">
         <v>0</v>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -147,9 +147,6 @@
     <t>solution-document.docx</t>
   </si>
   <si>
-    <t>int main(argv)</t>
-  </si>
-  <si>
     <t>void init_lister(char)</t>
   </si>
   <si>
@@ -168,15 +165,6 @@
     <t>Phase 2 check list</t>
   </si>
   <si>
-    <t>otherfunct.c</t>
-  </si>
-  <si>
-    <t>printfunct.c</t>
-  </si>
-  <si>
-    <t>utilheader.h</t>
-  </si>
-  <si>
     <t>Phase 1 Task Description</t>
   </si>
   <si>
@@ -186,12 +174,6 @@
     <t>no coding here.  Just header file.</t>
   </si>
   <si>
-    <t>the source was named "util.c" before but I think it should be "lister.c"</t>
-  </si>
-  <si>
-    <t>lister.c</t>
-  </si>
-  <si>
     <t>% Completed</t>
   </si>
   <si>
@@ -208,6 +190,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>main.c</t>
+  </si>
+  <si>
+    <t>BOOLEAN get_source_line(FILE *src_file, char src_name[], char todays_date[])</t>
+  </si>
+  <si>
+    <t>FILE *init_lister(const char *name, char source_file_name[], char dte[])</t>
+  </si>
+  <si>
+    <t>int main (int argc, const char *argv[])</t>
+  </si>
+  <si>
+    <t>common.h</t>
+  </si>
+  <si>
+    <t>void print_line(char line[], char source_name_to_print[], char date_to_print[])</t>
+  </si>
+  <si>
+    <t>static void print_page_header(char source_name[], char date[])</t>
+  </si>
+  <si>
+    <t>print.c</t>
   </si>
 </sst>
 </file>
@@ -718,19 +724,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -739,43 +745,41 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -783,15 +787,15 @@
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H3" s="24"/>
     </row>
@@ -801,19 +805,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="27">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -823,15 +827,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H5" s="24"/>
     </row>
@@ -841,15 +845,15 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -859,10 +863,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>18</v>
@@ -871,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>18</v>
@@ -895,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,10 +911,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>18</v>
@@ -919,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,10 +935,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
@@ -943,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,14 +959,14 @@
         <v>10</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="23"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1012,7 +1016,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1033,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1141,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>print.c</t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,8 +777,12 @@
       <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="27"/>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.8</v>
+      </c>
       <c r="G2" s="27" t="s">
         <v>54</v>
       </c>
@@ -792,8 +799,12 @@
       <c r="D3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="28">
+        <v>1</v>
+      </c>
       <c r="G3" s="28" t="s">
         <v>53</v>
       </c>
@@ -832,7 +843,9 @@
       <c r="D5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28" t="s">
         <v>54</v>
@@ -850,7 +863,9 @@
       <c r="D6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
         <v>54</v>
@@ -872,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>53</v>
@@ -896,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>53</v>
@@ -920,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>53</v>
@@ -944,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>53</v>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>main.c</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>Yes (0%)</t>
   </si>
 </sst>
 </file>
@@ -723,11 +723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
     <col min="4" max="4" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="29" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,19 +772,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="27">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -794,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
@@ -816,19 +816,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="27">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -838,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>64</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28" t="s">
@@ -858,13 +858,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>41</v>
@@ -902,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>42</v>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>43</v>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>44</v>
@@ -967,58 +967,6 @@
       <c r="H10" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23">
-        <v>10</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23">
-        <v>12</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -727,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>64</v>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -727,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -727,7 +727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -9,20 +9,20 @@
   <sheets>
     <sheet name="Phase 2 Tasks" sheetId="5" r:id="rId1"/>
     <sheet name="Phase 2 check list" sheetId="6" r:id="rId2"/>
-    <sheet name="Phase1 Tasks (completed)" sheetId="4" r:id="rId3"/>
+    <sheet name="Phase1 Tasks" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Phase 2 Tasks'!$A$1:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Phase1 Tasks (completed)'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Phase1 Tasks'!$A$1:$G$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Phase 2 Tasks'!$D$1:$H$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Phase1 Tasks (completed)'!$C$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Phase1 Tasks'!$C$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>Get to know your team members. Send them your email, or meet them in class or even outside of class</t>
   </si>
@@ -186,9 +186,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>main.c</t>
   </si>
   <si>
@@ -213,10 +210,7 @@
     <t>print.c</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Yes (0%)</t>
+    <t>Yes (100%)</t>
   </si>
 </sst>
 </file>
@@ -245,12 +239,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -264,6 +252,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -345,65 +338,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,6 +383,37 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,8 +730,8 @@
     <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="18" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -756,10 +749,10 @@
       <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -767,204 +760,208 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="G2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>57</v>
+      <c r="C3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="17">
         <v>1</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="G4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="17">
         <v>1</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -979,102 +976,102 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="129.5703125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="3.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="129.5703125" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,7 +1084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,297 +1121,297 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25">
         <v>11</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25">
         <v>14</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="29" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Lab2.Tasks.xlsx
+++ b/Lab2.Tasks.xlsx
@@ -720,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
